--- a/【ステージ】　プランナー用.xlsx
+++ b/【ステージ】　プランナー用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　アニメーション\team制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30489CFE-CFD4-4AD2-BB40-F1DD4ADDDFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948ECE09-2768-48CD-8DCB-1EE7D46BB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D2475FC-FC0A-4AD5-949C-9F73577F5248}"/>
   </bookViews>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA3D36F-D624-46C9-BCA7-B45DE345A91B}">
-  <dimension ref="C2:AK19"/>
+  <dimension ref="C2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1057,6 +1057,533 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
+    <row r="21" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="1"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="3:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/【ステージ】　プランナー用.xlsx
+++ b/【ステージ】　プランナー用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　アニメーション\team制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948ECE09-2768-48CD-8DCB-1EE7D46BB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F2BBB-EFB2-49BE-A499-49CAE9726B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D2475FC-FC0A-4AD5-949C-9F73577F5248}"/>
   </bookViews>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA3D36F-D624-46C9-BCA7-B45DE345A91B}">
   <dimension ref="C2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AZ15" sqref="AZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1135,17 +1135,17 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="7"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="7"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="7"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -1166,17 +1166,17 @@
       <c r="O24" s="7"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="7"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="7"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="7"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="7"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -1197,17 +1197,17 @@
       <c r="O25" s="7"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="7"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="7"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="7"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -1228,17 +1228,17 @@
       <c r="O26" s="7"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="7"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="7"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="7"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="7"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -1259,17 +1259,17 @@
       <c r="O27" s="7"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="7"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="7"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -1290,17 +1290,17 @@
       <c r="O28" s="7"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="7"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="7"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="7"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="7"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -1321,17 +1321,17 @@
       <c r="O29" s="7"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="7"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="7"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="7"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -1352,17 +1352,17 @@
       <c r="O30" s="7"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="7"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="7"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="7"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -1383,17 +1383,17 @@
       <c r="O31" s="7"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="7"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="7"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="7"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="7"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -1414,17 +1414,17 @@
       <c r="O32" s="7"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="7"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="7"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="7"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="7"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -1445,17 +1445,17 @@
       <c r="O33" s="7"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="7"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="7"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="7"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="7"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -1476,17 +1476,17 @@
       <c r="O34" s="7"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="7"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="7"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="7"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="7"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -1507,17 +1507,17 @@
       <c r="O35" s="7"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="7"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="7"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="7"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="7"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
